--- a/target/test-classes/Commondate_wylo.xlsx
+++ b/target/test-classes/Commondate_wylo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="3" r:id="rId1"/>
@@ -40,46 +40,47 @@
     <t>New Course created</t>
   </si>
   <si>
-    <t>New edit course and free</t>
+    <t>Development course</t>
   </si>
   <si>
     <t>Short description</t>
   </si>
   <si>
-    <t>New short description</t>
+    <t xml:space="preserve">Free learning </t>
   </si>
   <si>
     <t>Course question</t>
   </si>
   <si>
-    <t>Edit faq question</t>
+    <t>How long will I have access to the course?</t>
   </si>
   <si>
     <t>Course Answer</t>
   </si>
   <si>
-    <t>Edit Faq answer</t>
+    <t>You will have lifetime access to all course materials, including any future updates.</t>
   </si>
   <si>
     <t>Free Course</t>
   </si>
   <si>
-    <t>Edit course and free</t>
+    <t>Embark on your journey into the world of web development with our 'Web Development for Beginners' course. This course provides a solid foundation in both front-end and back-end development, covering essential technologies like HTML, CSS, JavaScript, and PHP</t>
   </si>
   <si>
     <t>Create New chapter</t>
   </si>
   <si>
-    <t>Edited chapter name</t>
+    <t xml:space="preserve"> Introduction to Web Development</t>
   </si>
   <si>
     <t>Create New Lesson</t>
   </si>
   <si>
-    <t>Edited lesson name</t>
-  </si>
-  <si>
-    <t>NewLessonCommand</t>
+    <t>Understanding the Basics of Web Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web development is the process of building and maintaining websites. It involves several tasks, including web design, web content development, client-side/server-side scripting, and network security configuration.
+</t>
   </si>
   <si>
     <t>Course_price</t>
@@ -737,12 +738,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1282,7 +1289,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1305,7 @@
       </c>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1316,14 +1323,14 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="23.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="142.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1358,11 +1365,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="28.8" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1382,8 +1389,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="8" ht="43.2" spans="2:2">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1391,7 +1398,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1399,7 +1406,7 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1407,7 +1414,7 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1415,7 +1422,7 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1458,22 +1465,22 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/target/test-classes/Commondate_wylo.xlsx
+++ b/target/test-classes/Commondate_wylo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>badri@wylo.in</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>balaji@wylo.in</t>
-  </si>
-  <si>
-    <t>0'</t>
   </si>
 </sst>
 </file>
@@ -1323,8 +1320,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1451,13 +1448,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1466,22 +1466,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Commondate_wylo.xlsx
+++ b/target/test-classes/Commondate_wylo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>badri@wylo.in</t>
   </si>
@@ -83,10 +83,7 @@
 </t>
   </si>
   <si>
-    <t>Course_price</t>
-  </si>
-  <si>
-    <t>1000'</t>
+    <t>1999'</t>
   </si>
   <si>
     <t>Card_Number</t>
@@ -1320,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1391,52 +1388,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1444,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1461,7 +1455,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
